--- a/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample06-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample06-from-config-file.xlsx
@@ -1192,14 +1192,14 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{c10534fc-d2ef-488c-ae34-6632f69d9f34}" type="line" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="1" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{5f4b6566-b3db-49c1-ad9d-b52159e63470}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FFD00000"/>
           <x14:colorFirst rgb="FFD00000"/>
           <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
           <x14:colorLow rgb="FFD00000"/>
           <xm:f>'SEKRates'!A2:A12</xm:f>
           <x14:sparklines>
@@ -1208,25 +1208,6 @@
               <xm:sqref>B18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
-          <x14:sparklineGroup lineWidth="75"/>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{0028382a-aaad-4cdf-a507-936c1e117d85}" type="line" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="1" maxAxisType="Individual" minAxisType="Individual">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <xm:f>'SEKRates'!A2:A12</xm:f>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'SEKRates'!C2:C12</xm:f>
-              <xm:sqref>B18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-          <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>

--- a/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample06-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample06-from-config-file.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>Column</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00000;[Black]\-#,##0.00000"/>
     <numFmt numFmtId="166" formatCode="##0;[Black]\-##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -92,6 +95,12 @@
       <sz val="10"/>
       <color rgb="FF000000" tint="0"/>
       <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -201,161 +210,175 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2">
+    <xf numFmtId="49" fontId="3" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3">
+    <xf numFmtId="49" fontId="4" fillId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3">
+    <xf numFmtId="49" fontId="4" fillId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3">
+    <xf numFmtId="49" fontId="5" fillId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3">
+    <xf numFmtId="49" fontId="5" fillId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="3">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="3">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="2">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="4" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="5" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" xfId="4" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="3" applyFill="1" xfId="6" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" xfId="5" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="3" applyFill="1" xfId="7" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="3" applyFill="1" xfId="6" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" xfId="8" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="3" applyFill="1" xfId="7" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" xfId="9" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="2" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="2" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="4" applyFont="1" fillId="7" applyFill="1" borderId="2" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="4" applyFont="1" fillId="7" applyFill="1" borderId="2" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
-    <cellStyle name="ReportTitleStyle" xfId="2"/>
-    <cellStyle name="ReportTitleStyle_Alternate" xfId="3"/>
-    <cellStyle name="HeaderStyle" xfId="4"/>
-    <cellStyle name="HeaderStyle_Alternate" xfId="5"/>
-    <cellStyle name="HeaderTopStyle" xfId="6"/>
-    <cellStyle name="HeaderTopStyle_Alternate" xfId="7"/>
-    <cellStyle name="DateValueStyle" xfId="8"/>
-    <cellStyle name="DateValueStyle_Alternate" xfId="9"/>
-    <cellStyle name="DecimalValueStyle" xfId="10"/>
-    <cellStyle name="DecimalValueStyle_Alternate" xfId="11"/>
-    <cellStyle name="SekValueStyle" xfId="12"/>
-    <cellStyle name="SekValueStyle_Alternate" xfId="13"/>
-    <cellStyle name="LastFiedlDecimalValueStyle" xfId="14"/>
-    <cellStyle name="LastFiedlDecimalValueStyle_Alternate" xfId="15"/>
-    <cellStyle name="RemarksMYRStyle" xfId="16"/>
-    <cellStyle name="RemarksMYRStyle_Alternate" xfId="17"/>
-    <cellStyle name="MaximumMYRStyle" xfId="18"/>
-    <cellStyle name="MaximumMYRStyle_Alternate" xfId="19"/>
-    <cellStyle name="MinimumMYRStyle" xfId="20"/>
-    <cellStyle name="MinimumMYRStyle_Alternate" xfId="21"/>
+    <cellStyle name="ColumnMiniChartLineStyle" xfId="2"/>
+    <cellStyle name="ColumnMiniChartLineStyle_Alternate" xfId="3"/>
+    <cellStyle name="ReportTitleStyle" xfId="4"/>
+    <cellStyle name="ReportTitleStyle_Alternate" xfId="5"/>
+    <cellStyle name="HeaderStyle" xfId="6"/>
+    <cellStyle name="HeaderStyle_Alternate" xfId="7"/>
+    <cellStyle name="HeaderTopStyle" xfId="8"/>
+    <cellStyle name="HeaderTopStyle_Alternate" xfId="9"/>
+    <cellStyle name="DateValueStyle" xfId="10"/>
+    <cellStyle name="DateValueStyle_Alternate" xfId="11"/>
+    <cellStyle name="DecimalValueStyle" xfId="12"/>
+    <cellStyle name="DecimalValueStyle_Alternate" xfId="13"/>
+    <cellStyle name="SekValueStyle" xfId="14"/>
+    <cellStyle name="SekValueStyle_Alternate" xfId="15"/>
+    <cellStyle name="LastFiedlDecimalValueStyle" xfId="16"/>
+    <cellStyle name="LastFiedlDecimalValueStyle_Alternate" xfId="17"/>
+    <cellStyle name="RemarksMYRStyle" xfId="18"/>
+    <cellStyle name="RemarksMYRStyle_Alternate" xfId="19"/>
+    <cellStyle name="MaximumMYRStyle" xfId="20"/>
+    <cellStyle name="MaximumMYRStyle_Alternate" xfId="21"/>
+    <cellStyle name="MinimumMYRStyle" xfId="22"/>
+    <cellStyle name="MinimumMYRStyle_Alternate" xfId="23"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -523,9 +546,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="1"/>
+    <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -549,639 +572,644 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>42430</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="12">
         <v>6.1735000610351562</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="12">
         <v>6.420839786529541</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>8.6478500366210938</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>1.2566800117492676</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="12">
         <v>9.3737602233886719</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="12">
         <v>12.016830444335938</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="12">
         <v>1.1106699705123901</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="12">
         <v>0.075989998877048492</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="12">
         <v>2.0690000057220459</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="12">
         <v>0.99522000551223755</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="12">
         <v>5.6922698020935059</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="12">
         <v>0.11665000021457672</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="14">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="12">
         <v>0.24232999980449677</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="12">
         <v>2.9301700592041016</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="16">
         <v>8.6318502426147461</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>42431</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="13">
         <v>6.27223014831543</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>6.4234499931335449</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>8.63479995727539</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>1.254040002822876</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>9.3535003662109375</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="13">
         <v>12.149700164794922</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="13">
         <v>1.110990047454834</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="13">
         <v>0.075819998979568481</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="13">
         <v>2.074009895324707</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="13">
         <v>0.99311000108718872</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="13">
         <v>5.7327699661254883</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="13">
         <v>0.11756999790668488</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="15">
         <v>1</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="13">
         <v>0.24305999279022217</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="13">
         <v>2.9408299922943115</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="17">
         <v>8.6381998062133789</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>42436</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="12">
         <v>6.3377799987792969</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="12">
         <v>6.3840298652648926</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="12">
         <v>8.5024499893188477</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="12">
         <v>1.2497999668121338</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="12">
         <v>9.32373046875</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="12">
         <v>12.057559967041016</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="12">
         <v>1.0931400060653687</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="12">
         <v>0.074780002236366272</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="12">
         <v>2.0717101097106934</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="12">
         <v>0.99751001596450806</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="12">
         <v>5.7753901481628418</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="12">
         <v>0.11841999739408493</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="14">
         <v>1</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="12">
         <v>0.23973000049591065</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="12">
         <v>2.9108800888061523</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="16">
         <v>8.4888496398925781</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>42437</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="13">
         <v>6.3026800155639648</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>6.3177399635314941</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>8.54065990447998</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="13">
         <v>1.2547099590301514</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <v>9.3625402450561523</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="13">
         <v>12.033610343933106</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="13">
         <v>1.090459942817688</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="13">
         <v>0.075309999287128448</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="13">
         <v>2.0562500953674316</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="13">
         <v>0.99225002527236938</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="13">
         <v>5.7250099182128906</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="13">
         <v>0.11619000136852264</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="15">
         <v>1</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="13">
         <v>0.23948000371456146</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="13">
         <v>2.9106700420379639</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="17">
         <v>8.4701995849609375</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>42438</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="12">
         <v>6.3263001441955566</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="12">
         <v>6.336979866027832</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="12">
         <v>8.4611797332763672</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="12">
         <v>1.2439899444580078</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="12">
         <v>9.28125</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="12">
         <v>11.988789558410645</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="12">
         <v>1.0854400396347046</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="12">
         <v>0.074670001864433289</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="12">
         <v>2.0412800312042236</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="12">
         <v>0.98960000276565552</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="12">
         <v>5.7160100936889648</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="12">
         <v>0.11862999945878983</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="14">
         <v>1</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="12">
         <v>0.23893000185489655</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="12">
         <v>2.9134900569915771</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="16">
         <v>8.4294500350952148</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>42439</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="13">
         <v>6.2424101829528809</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>6.2881698608398438</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>8.48684024810791</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="13">
         <v>1.2525999546051025</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>9.3435001373291016</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="13">
         <v>11.99193000793457</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="13">
         <v>1.0795600414276123</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="13">
         <v>0.073919996619224548</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="13">
         <v>2.0450000762939453</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="13">
         <v>0.9826700091362</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="13">
         <v>5.58144998550415</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="13">
         <v>0.11768999695777893</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="15">
         <v>1</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="13">
         <v>0.2378000020980835</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="13">
         <v>2.8914999961853027</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="17">
         <v>8.3824501037597656</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>42440</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="12">
         <v>6.3017997741699219</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="12">
         <v>6.3015198707580566</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <v>8.4829502105712891</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="12">
         <v>1.248479962348938</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="12">
         <v>9.3122997283935547</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="12">
         <v>12.011940002441406</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="12">
         <v>1.0754499435424805</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="12">
         <v>0.0735199972987175</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="12">
         <v>2.0411200523376465</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="12">
         <v>0.98934000730514526</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="12">
         <v>5.6233501434326172</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="12">
         <v>0.11913999915122986</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="14">
         <v>1</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="12">
         <v>0.23808999359607697</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="12">
         <v>2.90310001373291</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="16">
         <v>8.3451004028320312</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9">
+      <c r="A9" s="11">
         <v>42444</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="13">
         <v>6.19789981842041</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>6.2161498069763184</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>8.4293098449707031</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="13">
         <v>1.2375400066375732</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="13">
         <v>9.2289600372314453</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="13">
         <v>11.764180183410645</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="13">
         <v>1.0702600479125977</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="13">
         <v>0.0735900029540062</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="13">
         <v>2.0092899799346924</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="13">
         <v>0.9712899923324585</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="13">
         <v>5.4927802085876465</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="13">
         <v>0.11693999916315079</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="15">
         <v>1</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="13">
         <v>0.23642000555992127</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="13">
         <v>2.8648700714111328</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="17">
         <v>8.3053998947143555</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="10">
         <v>42445</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="12">
         <v>6.1850800514221191</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="12">
         <v>6.2249298095703125</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="12">
         <v>8.4179201126098633</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="12">
         <v>1.2354300022125244</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="12">
         <v>9.2114896774292</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="12">
         <v>11.724699974060059</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="12">
         <v>1.0715199708938599</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="12">
         <v>0.073179997503757477</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="12">
         <v>2.0117900371551514</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="12">
         <v>0.96907001733779907</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="12">
         <v>5.4913802146911621</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="12">
         <v>0.1183599978685379</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="14">
         <v>1</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="12">
         <v>0.23724000155925751</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="12">
         <v>2.8476700782775879</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="16">
         <v>8.3177499771118164</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9">
+      <c r="A11" s="11">
         <v>42446</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="13">
         <v>6.2521400451660156</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>6.306419849395752</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>8.4598102569580078</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>1.2432700395584106</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="13">
         <v>9.2662296295166016</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="13">
         <v>11.863960266113281</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="13">
         <v>1.0557099580764771</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="13">
         <v>0.073559999465942383</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="13">
         <v>2.0170600414276123</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="13">
         <v>0.98158997297286987</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="13">
         <v>5.5954399108886719</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="13">
         <v>0.12024000287055969</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="15">
         <v>1</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="13">
         <v>0.23543000221252441</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="13">
         <v>2.8759500980377197</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="17">
         <v>8.1882495880126953</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8">
+      <c r="A12" s="10">
         <v>42447</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="12">
         <v>6.2535901069641113</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="12">
         <v>6.3239998817443848</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="12">
         <v>8.4782600402832031</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="12">
         <v>1.2438100576400757</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="12">
         <v>9.2697601318359375</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="12">
         <v>11.913220405578613</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="12">
         <v>1.0588099956512451</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="12">
         <v>0.073700003325939178</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="12">
         <v>2.0255401134490967</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="12">
         <v>0.9843900203704834</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="12">
         <v>5.590670108795166</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="12">
         <v>0.12063000351190567</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="14">
         <v>1</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="12">
         <v>0.23537999391555786</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="12">
         <v>2.8687999248504639</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="16">
         <v>8.2095003128051758</v>
+      </c>
+    </row>
+    <row r="14" ht="40" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1192,20 +1220,259 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{5f4b6566-b3db-49c1-ad9d-b52159e63470}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <xm:f>'SEKRates'!A2:A12</xm:f>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{0e915e07-3de3-4f5d-ab5e-9e4397c48adf}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
               <xm:f>'SEKRates'!B2:B12</xm:f>
-              <xm:sqref>B18</xm:sqref>
+              <xm:sqref>B14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b01baa19-04f1-4c5c-943e-01109ba4c844}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!C2:C12</xm:f>
+              <xm:sqref>C14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{0c04284e-a0c5-45c4-9e85-29c073b424dc}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!D2:D12</xm:f>
+              <xm:sqref>D14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{1aae10f8-3d71-452c-93cc-c36eb96d7afc}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!E2:E12</xm:f>
+              <xm:sqref>E14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{6d47817e-b61a-4b5c-9bf2-df7caedab01d}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!F2:F12</xm:f>
+              <xm:sqref>F14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{12abef52-ad40-4b51-85eb-8387c0f8b3b2}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!G2:G12</xm:f>
+              <xm:sqref>G14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{8b098191-f76e-45da-9586-e0701d203045}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!H2:H12</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{435c5fdd-3a13-48a5-96a0-7689c21d7214}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!I2:I12</xm:f>
+              <xm:sqref>I14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b94ea0a1-b09d-4911-8f75-e173b01873c9}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!J2:J12</xm:f>
+              <xm:sqref>J14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{6d355b1c-b080-4050-bb3f-7622e9ccd7c8}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!K2:K12</xm:f>
+              <xm:sqref>K14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{4a2949eb-5444-4f6e-93ef-61721b160150}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!L2:L12</xm:f>
+              <xm:sqref>L14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{5fe3c886-3d0e-4388-b2af-df0b700b5826}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!M2:M12</xm:f>
+              <xm:sqref>M14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{d1abdb55-b46d-465a-80c3-bcbfedf580f8}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!N2:N12</xm:f>
+              <xm:sqref>N14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{2837e6d8-8763-4fb8-8e63-20567e7cde52}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!O2:O12</xm:f>
+              <xm:sqref>O14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{fb837721-73cf-4870-ae7d-ce82e708e926}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!P2:P12</xm:f>
+              <xm:sqref>P14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{de082170-b58e-4dae-8fed-b2ebcfa0a054}" type="column" displayHidden="0" displayEmptyCellsAs="zero" rightToLeft="0" displayXAxis="1" dateAxis="0" maxAxisType="Individual" minAxisType="Individual" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'SEKRates'!Q2:Q12</xm:f>
+              <xm:sqref>Q14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample06-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample06-from-config-file.xlsx
@@ -1064,7 +1064,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{c06f2c4b-6ad9-40df-bbf6-3ec16a7acc65}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{f0b7016c-5a49-4213-8b58-cc57005e587b}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1080,7 +1080,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{c507921e-2c4f-411b-a584-b271070ce720}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{57030b5d-ef42-4b27-b2f9-45ff76508cf6}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1096,7 +1096,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{24ecb1e2-2dd3-4aeb-917d-4ff63df6635d}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a61764ea-57a5-4aa9-b3e4-d61a144d6e06}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1112,7 +1112,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{fcea0272-3d85-415d-9ac1-292329e48a0d}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{cfe887ff-8eea-4ceb-9a0a-f19fa40beee1}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1128,7 +1128,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{6472fa7e-32d7-422d-b1b7-fdb374ba478b}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{6d1d9778-1197-40fb-99e7-9322251678a1}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1144,7 +1144,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{45b82145-4db1-43f3-974e-9ae758028aab}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{0015c1eb-d413-40aa-b6a0-a1afb33ed86d}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1160,7 +1160,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{c7c7e214-7835-4d24-8154-3b9c1ef4dc0e}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{4b8f7f9f-fb1c-4ea1-aa1b-a277f9649183}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1176,7 +1176,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{37cd15af-0819-45a3-b91e-067f5f3a017e}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{4ffff1ba-bae2-496a-957d-f988bf4a9e74}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1192,7 +1192,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{443f17ad-1400-4e12-a4ac-2aa8ce10a799}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{db813acc-9d82-4f3e-b786-e7956927fcee}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1208,7 +1208,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{498b2080-440d-4dde-9fbb-feb4ee720a12}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{3e35f076-9315-487c-94c0-af93bd0d8aae}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1224,7 +1224,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{683771f1-1f07-4bc5-b58c-45540fc6fc46}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{1c608eca-2f86-41bf-89de-3de2f306f407}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1240,7 +1240,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{92c80eb4-5ad4-4e51-9b29-37cd2906c3c9}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{dfb29b79-093f-4dab-b1a7-14c6a597abfd}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1256,7 +1256,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{973b676b-96d2-4fdc-8f52-d35d545d7a51}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{e6789eda-3d7d-4df6-a2b6-d967fff7277c}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1272,7 +1272,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{58a42e44-3fb2-4127-93d8-4c8dab572b84}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{f95ab944-ed70-4e18-944a-f6c810c628fb}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1288,7 +1288,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{5c74d997-877c-4830-8182-04f21ff9db8d}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{f8f39654-6eaf-4fe4-bf86-072b0173cb9d}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1304,7 +1304,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{698b8ca9-172e-41ba-b720-c6f2a065d88c}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{91a842c6-bdfd-4635-bc5b-016344a997ba}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1320,7 +1320,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{c30b8241-b3d1-4f14-bcf0-180225a2d556}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{51e01b4e-1ef2-46a8-97a2-92c134c1da01}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1338,7 +1338,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{e3c72e96-e8a7-4851-b6f0-9321dea9b341}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{93d9a05c-fc08-43dd-81b0-57fe32337d9d}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1356,7 +1356,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{f75f17d5-fa51-428f-83ec-4c4c597d7499}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b56395d5-da07-4921-bc86-9db4c006fc60}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1374,7 +1374,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{54633958-2a34-4e95-80b8-abcfae9da694}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{16ca29b4-1c5e-4c8d-a869-7eaa00f8f43e}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1392,7 +1392,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{370c84b7-4ec0-4c00-9808-1aa79ba1c04d}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{ba220fd9-8e69-4363-9328-8f22a7b75b09}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1410,7 +1410,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{08d2efb6-939c-49b2-aa83-abc330d3007a}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{e3c28046-10d9-4beb-90f8-32c607f12113}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1428,7 +1428,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{03c7ad69-474c-4470-a61e-f8bbd2aaac5e}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a7e41c5a-0c83-4b36-aaaa-ae97b9bdd9af}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1446,7 +1446,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b290e19c-05e7-48b6-b5f0-db99699b2f56}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{407df60b-f1e6-459e-9f39-9a599cb4cee9}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1464,7 +1464,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{acee213e-463d-415f-8be3-47e3abe3aab9}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b1144ce0-9656-490d-80cf-19453e034977}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1482,7 +1482,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{6ec072a5-5ec4-4ece-9190-bade554e65d2}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a33d76bc-cac4-431a-8fd5-7d3c72a65a04}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1500,7 +1500,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{abd2479b-1f17-4092-b1e5-a5c93c3941ea}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{ae9b0e40-1ed1-4e26-8490-265160243fca}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1518,7 +1518,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{4d6f3f9f-80e0-4206-a30e-ca17f0dfd4a3}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{617caaa3-955a-4385-a7b1-1e78fe156711}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1536,7 +1536,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{d30e37c5-567d-482c-a300-63e49579ed06}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{f795c85e-446f-404e-b22e-3037e93dcd66}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1554,7 +1554,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{d69fbf40-08d0-4689-a112-f4a740cbef60}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b06db69b-1fc2-4b5e-931d-9961d9f022a6}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1572,7 +1572,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{40ed0afe-eb33-48d2-901b-e03834d8b393}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{95db822d-8dee-4b62-a0bd-1f1c3db6ef5a}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1590,7 +1590,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{706fe49f-c28f-4f50-9a24-f7e2059e260d}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{7dc413d6-a589-4d3d-bd15-702d0743f0e7}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample06-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample06-from-config-file.xlsx
@@ -1064,7 +1064,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{f0b7016c-5a49-4213-8b58-cc57005e587b}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{bfe6173e-9709-4dc8-8b92-237da5f1ff96}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1080,7 +1080,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{57030b5d-ef42-4b27-b2f9-45ff76508cf6}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{db2a41c5-3835-4684-b516-eb0bf4fc77b7}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1096,7 +1096,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a61764ea-57a5-4aa9-b3e4-d61a144d6e06}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{3649dc97-066a-4ac7-802c-0067d8bca8ed}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1112,7 +1112,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{cfe887ff-8eea-4ceb-9a0a-f19fa40beee1}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{39188c81-8e9b-4a7d-93d0-36b83a36cbe0}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1128,7 +1128,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{6d1d9778-1197-40fb-99e7-9322251678a1}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{291fc2da-d559-4b41-8371-2df876e42b34}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1144,7 +1144,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{0015c1eb-d413-40aa-b6a0-a1afb33ed86d}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{33c1f2e3-afa7-4981-9790-d84662c040e8}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1160,7 +1160,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{4b8f7f9f-fb1c-4ea1-aa1b-a277f9649183}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{acb5cdc8-3c57-49df-984e-d21cf9aff345}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1176,7 +1176,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{4ffff1ba-bae2-496a-957d-f988bf4a9e74}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{23a5df75-760e-4f89-8daa-d86198a7d956}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1192,7 +1192,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{db813acc-9d82-4f3e-b786-e7956927fcee}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b032d235-a217-4c61-903e-f858733183ae}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1208,7 +1208,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{3e35f076-9315-487c-94c0-af93bd0d8aae}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{1ee6d3b9-7261-4cfd-a100-4c017258ef4a}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1224,7 +1224,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{1c608eca-2f86-41bf-89de-3de2f306f407}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{9d9bfbe5-1cef-42c1-b366-8ceb0238769e}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1240,7 +1240,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{dfb29b79-093f-4dab-b1a7-14c6a597abfd}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{fb72000c-4ecc-4a00-961c-5671a4c9357c}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1256,7 +1256,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{e6789eda-3d7d-4df6-a2b6-d967fff7277c}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{bedc9a39-3b80-4659-a40d-4c5a9ec0a266}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1272,7 +1272,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{f95ab944-ed70-4e18-944a-f6c810c628fb}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{c8068718-7899-4c70-a02f-67d5a53dd3f7}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1288,7 +1288,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{f8f39654-6eaf-4fe4-bf86-072b0173cb9d}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{2a9989df-bba7-4cec-8716-ae71e0772303}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1304,7 +1304,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{91a842c6-bdfd-4635-bc5b-016344a997ba}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{fd0a3f26-edc4-4779-b2a8-57c4147e3183}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1320,7 +1320,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{51e01b4e-1ef2-46a8-97a2-92c134c1da01}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{08c186a6-48e6-4214-a53b-7a8a05867fe2}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1338,7 +1338,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{93d9a05c-fc08-43dd-81b0-57fe32337d9d}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a75df81e-d4d3-432e-bae3-5d8e0bfde407}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1356,7 +1356,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b56395d5-da07-4921-bc86-9db4c006fc60}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{16733ee0-ba17-4af3-8961-9c6209522a59}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1374,7 +1374,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{16ca29b4-1c5e-4c8d-a869-7eaa00f8f43e}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{cb27a3f2-8f6b-4aee-addc-a151512aaa3d}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1392,7 +1392,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{ba220fd9-8e69-4363-9328-8f22a7b75b09}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{8a7d3c86-c164-4c56-abe0-33a22b549819}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1410,7 +1410,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{e3c28046-10d9-4beb-90f8-32c607f12113}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{68641314-c61a-40cc-8e91-97defde811af}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1428,7 +1428,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a7e41c5a-0c83-4b36-aaaa-ae97b9bdd9af}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{417b26e3-5748-45be-b4c6-a7416035e007}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1446,7 +1446,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{407df60b-f1e6-459e-9f39-9a599cb4cee9}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{585c34b4-a829-4e57-a95d-9a1428709f39}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1464,7 +1464,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b1144ce0-9656-490d-80cf-19453e034977}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a4bdc756-836e-494c-bbc8-a0ad5130c2f6}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1482,7 +1482,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a33d76bc-cac4-431a-8fd5-7d3c72a65a04}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{fd9b7f13-ac64-470d-b8eb-82dc5a7a9539}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1500,7 +1500,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{ae9b0e40-1ed1-4e26-8490-265160243fca}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{bc274f2f-fc41-42e3-9ed7-623b43b14387}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1518,7 +1518,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{617caaa3-955a-4385-a7b1-1e78fe156711}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{81f4433a-f9d3-4df6-92dd-b57fc0204f2a}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1536,7 +1536,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{f795c85e-446f-404e-b22e-3037e93dcd66}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{54acab6d-19ef-4440-a865-dfc7f91114c9}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1554,7 +1554,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b06db69b-1fc2-4b5e-931d-9961d9f022a6}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{d9c4f472-d5d9-4e75-bc84-71fbf47ec69b}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1572,7 +1572,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{95db822d-8dee-4b62-a0bd-1f1c3db6ef5a}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{aa4e0fc5-f54f-4fd7-baf7-5e50c3838c91}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1590,7 +1590,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{7dc413d6-a589-4d3d-bd15-702d0743f0e7}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{76cfbcd9-1949-4335-8652-c3da1cfcec40}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample06-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample06-from-config-file.xlsx
@@ -1064,7 +1064,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{bfe6173e-9709-4dc8-8b92-237da5f1ff96}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{bd306ee4-9fbf-4b6b-8c6b-c202b8418480}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1080,7 +1080,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{db2a41c5-3835-4684-b516-eb0bf4fc77b7}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{d23d53b7-44d5-4de9-a9e2-4324eb24c95b}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1096,7 +1096,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{3649dc97-066a-4ac7-802c-0067d8bca8ed}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{cfa3b69c-5df1-4763-82da-1aa844d36741}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1112,7 +1112,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{39188c81-8e9b-4a7d-93d0-36b83a36cbe0}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{1687ded7-d94b-44b1-9241-8e4796bfe933}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1128,7 +1128,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{291fc2da-d559-4b41-8371-2df876e42b34}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{3b4e6541-6314-413c-92f0-37fa0f8eecd2}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1144,7 +1144,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{33c1f2e3-afa7-4981-9790-d84662c040e8}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{0415dbdc-ec9f-4ff0-868d-056bffb2fe25}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1160,7 +1160,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{acb5cdc8-3c57-49df-984e-d21cf9aff345}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{e0ce1d29-4798-4391-8241-bf1e07b91362}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1176,7 +1176,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{23a5df75-760e-4f89-8daa-d86198a7d956}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{4909a7a3-392b-4fd2-8c12-4b3fc9b57e87}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1192,7 +1192,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b032d235-a217-4c61-903e-f858733183ae}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{39e0dde2-8332-4ced-9c64-cf403803b6bf}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1208,7 +1208,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{1ee6d3b9-7261-4cfd-a100-4c017258ef4a}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b2a84baf-025a-4db8-b2d1-316398eca831}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1224,7 +1224,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{9d9bfbe5-1cef-42c1-b366-8ceb0238769e}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{f80db8da-33d5-41cc-b34f-70ca293ef01d}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1240,7 +1240,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{fb72000c-4ecc-4a00-961c-5671a4c9357c}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{85d0082a-220c-4223-b16b-237653402ceb}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1256,7 +1256,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{bedc9a39-3b80-4659-a40d-4c5a9ec0a266}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{516a498e-ce2a-4cb5-bf1e-d2374c63be9b}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1272,7 +1272,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{c8068718-7899-4c70-a02f-67d5a53dd3f7}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{21d10cbb-b56f-4808-8b04-b4cde3533916}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1288,7 +1288,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{2a9989df-bba7-4cec-8716-ae71e0772303}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{8e9e2e91-fb29-40b8-bb42-2f31a094dfab}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1304,7 +1304,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{fd0a3f26-edc4-4779-b2a8-57c4147e3183}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{9b4d1e85-78f4-485d-af92-f380748ad3b4}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="0" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1320,7 +1320,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{08c186a6-48e6-4214-a53b-7a8a05867fe2}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{256dcff9-3fc5-4d2c-b84e-8ca07671a6b9}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1338,7 +1338,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a75df81e-d4d3-432e-bae3-5d8e0bfde407}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{bd3ea20e-6bdc-4705-8e47-355941e6bde0}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1356,7 +1356,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{16733ee0-ba17-4af3-8961-9c6209522a59}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b7b0c22d-2e49-4d43-837b-b95d336264e0}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1374,7 +1374,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{cb27a3f2-8f6b-4aee-addc-a151512aaa3d}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{6667f57d-daa0-4d73-8afc-e8850dc352a6}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1392,7 +1392,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{8a7d3c86-c164-4c56-abe0-33a22b549819}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{85345a05-a310-4f4e-a552-1c54ce392dd1}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1410,7 +1410,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{68641314-c61a-40cc-8e91-97defde811af}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{35c2ba95-e126-4543-b355-a0296a592e7b}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1428,7 +1428,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{417b26e3-5748-45be-b4c6-a7416035e007}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{d7048f65-697b-4bee-b9f7-5b7d1a04b322}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1446,7 +1446,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{585c34b4-a829-4e57-a95d-9a1428709f39}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{c539d0cb-6a93-451a-846a-27d9c10f0f30}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1464,7 +1464,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a4bdc756-836e-494c-bbc8-a0ad5130c2f6}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{eac90879-594b-4e5b-990b-7cbdd593ab75}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1482,7 +1482,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{fd9b7f13-ac64-470d-b8eb-82dc5a7a9539}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{06741fd1-1556-4c1b-a49d-a78d85352639}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1500,7 +1500,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{bc274f2f-fc41-42e3-9ed7-623b43b14387}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{26f55c66-4e11-4120-9ea0-c33aadc00367}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1518,7 +1518,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{81f4433a-f9d3-4df6-92dd-b57fc0204f2a}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{18bb45c2-6419-445b-a410-28819a7a34d3}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1536,7 +1536,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{54acab6d-19ef-4440-a865-dfc7f91114c9}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{87b79f76-bc49-4efb-87eb-89f021fa2963}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1554,7 +1554,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{d9c4f472-d5d9-4e75-bc84-71fbf47ec69b}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b92472a6-392d-445a-b7e9-8d3313d3d08d}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1572,7 +1572,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{aa4e0fc5-f54f-4fd7-baf7-5e50c3838c91}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{74991e35-714e-4f68-81ef-02562859ddba}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1590,7 +1590,7 @@
           </x14:sparklines>
           <x14:sparklineGroup lineWidth="75"/>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{76cfbcd9-1949-4335-8652-c3da1cfcec40}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{9dca3233-a345-43e3-b204-d206174007ec}" type="line" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
